--- a/src/test/resources/ExcelData/LMS_excel.xlsx
+++ b/src/test/resources/ExcelData/LMS_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Team5_CucumberSlicers_LMS\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC9C75-56A4-42DC-B767-0372407113C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9441D130-EC29-4C87-A864-476CA378C88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E4AC8C50-B7D5-4C79-8DAA-18A7171112A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>URL</t>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>non exists Class Date</t>
+  </si>
+  <si>
+    <t>Descripion</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>recordings</t>
+  </si>
+  <si>
+    <t>Advanced Python</t>
+  </si>
+  <si>
+    <t>C:\ClassNotes</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>C:\recording</t>
+  </si>
+  <si>
+    <t>non exists description</t>
+  </si>
+  <si>
+    <t>non exists notes</t>
+  </si>
+  <si>
+    <t>non exists comments</t>
+  </si>
+  <si>
+    <t>non exists recordings</t>
+  </si>
+  <si>
+    <t>uuuu</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -179,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3233CE2-B0C5-4D0B-974C-CBFACCA056FD}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,25 +557,25 @@
     <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="7" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
@@ -567,8 +609,32 @@
       <c r="W1" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="X1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,11 +698,35 @@
       <c r="U2">
         <v>888</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>37764</v>
       </c>
       <c r="W2">
         <v>99999</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2">
+        <v>8888</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelData/LMS_excel.xlsx
+++ b/src/test/resources/ExcelData/LMS_excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav.saini\Desktop\Team5_CucumberSlicers_LMS\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44E259-4C15-495F-971A-3A2F6F4D5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD1CFC-3A21-489C-8C99-C6178EBA8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{6B2B5F02-03C5-49B9-9F1A-7AA0DD4D8725}"/>
+    <workbookView xWindow="7605" yWindow="990" windowWidth="9195" windowHeight="8632" xr2:uid="{6B2B5F02-03C5-49B9-9F1A-7AA0DD4D8725}"/>
   </bookViews>
   <sheets>
-    <sheet name="Program" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
+    <sheet name="Class" sheetId="3" r:id="rId1"/>
+    <sheet name="Program" sheetId="1" r:id="rId2"/>
+    <sheet name="User" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -620,6 +621,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EBAA5D-15AC-4727-BFFE-094AA6E2C2BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD4A1FF-158F-44E1-8F36-1CAFC611256F}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -774,11 +789,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BC6E39-F4A7-4871-94FB-52E206329C39}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelData/LMS_excel.xlsx
+++ b/src/test/resources/ExcelData/LMS_excel.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Team5_CucumberSlicers_LMS\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9441D130-EC29-4C87-A864-476CA378C88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF09C63-46D9-4CA5-937D-103AB6632B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E4AC8C50-B7D5-4C79-8DAA-18A7171112A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{E4AC8C50-B7D5-4C79-8DAA-18A7171112A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
+    <sheet name="Student" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId3"/>
+    <sheet name="Program" sheetId="4" r:id="rId4"/>
+    <sheet name="User" sheetId="5" r:id="rId5"/>
+    <sheet name="Batch" sheetId="6" r:id="rId6"/>
+    <sheet name="Attendance" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="175">
   <si>
     <t>URL</t>
   </si>
@@ -157,13 +163,411 @@
   </si>
   <si>
     <t>***</t>
+  </si>
+  <si>
+    <t>StudentName</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Non Assignment Number</t>
+  </si>
+  <si>
+    <t>Assignment Description</t>
+  </si>
+  <si>
+    <t>non Assignment Description</t>
+  </si>
+  <si>
+    <t>Grade By</t>
+  </si>
+  <si>
+    <t>non exists GradeBy</t>
+  </si>
+  <si>
+    <t>Assignment Due Date</t>
+  </si>
+  <si>
+    <t>non exists AssignmentDueDate</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Batch Number</t>
+  </si>
+  <si>
+    <t>Assignment1</t>
+  </si>
+  <si>
+    <t>Assignment2</t>
+  </si>
+  <si>
+    <t>Assignment3</t>
+  </si>
+  <si>
+    <t>Assignment4</t>
+  </si>
+  <si>
+    <t>Assignment5</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C:\Documents\Newsletters\SQL.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C:\Documents\Newsletters\VisualBasic.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C:\Documents\Newsletters\Selenium.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C:\Documents\Newsletters\pythoncode.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C:\Documents\Newsletters\Javacode.pdf</t>
+  </si>
+  <si>
+    <t>Expected Header</t>
+  </si>
+  <si>
+    <t>pagination icon</t>
+  </si>
+  <si>
+    <t>Expected footer</t>
+  </si>
+  <si>
+    <t>column headers</t>
+  </si>
+  <si>
+    <t>Program Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Special Characters</t>
+  </si>
+  <si>
+    <t>Expected feilds</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/program</t>
+  </si>
+  <si>
+    <t>Manage Program</t>
+  </si>
+  <si>
+    <t>Showing 1 to 5 of 4557 entries</t>
+  </si>
+  <si>
+    <t>In total there are 4557 programs</t>
+  </si>
+  <si>
+    <t>Program Name, Program Description, Program Status, Edit,Delete</t>
+  </si>
+  <si>
+    <t>SDET 123</t>
+  </si>
+  <si>
+    <t>SDET123-2023 batch</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Please enter data</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Program Name,Program Description,Status</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/studentpage</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/userpage</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/classpage</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/batchpage</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/Assignmentpage</t>
+  </si>
+  <si>
+    <t>https://lms.herokuapp.com/Attendancepage</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>LinkedinUrl</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>UnderGraduate</t>
+  </si>
+  <si>
+    <t>PostGraduate</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Usercomments</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>In total there are 2 users</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>xyz-linkedin</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>abc-linkedin</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>nica</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>non exists Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>non exists Program Name</t>
+  </si>
+  <si>
+    <t>non exists Status</t>
+  </si>
+  <si>
+    <t>No Classses</t>
+  </si>
+  <si>
+    <t>non exists No Classes</t>
+  </si>
+  <si>
+    <t>Add New Batch</t>
+  </si>
+  <si>
+    <t>{Add New Batch,LMS-Learning Management System,Student,Program,Batch,Class,User,Assignment,Attendance,Logout}</t>
+  </si>
+  <si>
+    <t>Python Program</t>
+  </si>
+  <si>
+    <t>Jan23-TehWarriors-SDET-969</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>expected Header</t>
+  </si>
+  <si>
+    <t>Expected field</t>
+  </si>
+  <si>
+    <t>Expected fields</t>
+  </si>
+  <si>
+    <t>HTTP response</t>
+  </si>
+  <si>
+    <t>NumberEntryText</t>
+  </si>
+  <si>
+    <t>Footer Text</t>
+  </si>
+  <si>
+    <t>Manage Attendance</t>
+  </si>
+  <si>
+    <t>A New Attendance</t>
+  </si>
+  <si>
+    <t>Showing 1 to 2</t>
+  </si>
+  <si>
+    <t>In total there are 2 Atendances</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Attendance Date</t>
+  </si>
+  <si>
+    <t>Invalid attendance date</t>
+  </si>
+  <si>
+    <t>Sdet</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>Adeet</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Gup</t>
+  </si>
+  <si>
+    <t>Programname is missing</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Class name is missing</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>studentname is missing</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>jeev</t>
+  </si>
+  <si>
+    <t>Attendance is missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +580,21 @@
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,10 +614,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,8 +649,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{73D4F4F6-648C-4B43-8A9D-6B8DD7C3AD8E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3233CE2-B0C5-4D0B-974C-CBFACCA056FD}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
@@ -735,4 +1187,824 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5B518A-AFC8-4445-ABA3-EA8E5717861F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>8975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B29AD1-87F5-4AC0-B65B-D59AA90A842C}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13">
+        <v>37927</v>
+      </c>
+      <c r="G2" s="10">
+        <v>888</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2003</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EB618D-7823-40BA-834B-1D84E4E2162C}">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B261FDBC-A19E-4CDB-BAA5-709D097FD086}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://lms.herokuapp.com/programname" xr:uid="{FFFA65BD-DAE9-4FAA-8D98-23592FA20B4F}"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://lms.herokuapp.com/programDescription" xr:uid="{22089F1C-82B8-477F-B9C4-1322CD7CA96E}"/>
+    <hyperlink ref="M2" r:id="rId4" xr:uid="{8EF34CAA-FC46-4463-A517-9E790A72C920}"/>
+    <hyperlink ref="N2" r:id="rId5" xr:uid="{20769A5F-B8BB-49BD-8727-23C80AEBD302}"/>
+    <hyperlink ref="O2" r:id="rId6" xr:uid="{2191BF90-E398-4D82-91DD-7DAD4B2652B6}"/>
+    <hyperlink ref="P2" r:id="rId7" xr:uid="{53A17F7B-EF71-431D-A329-4CC82E7756B2}"/>
+    <hyperlink ref="Q2" r:id="rId8" xr:uid="{8D353A94-EC16-4DC9-BCE0-C427F6F7CF31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C926C2AF-D0FA-4DBF-B4D3-CEED95542EC6}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="16">
+        <v>789928937</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="16">
+        <v>25554</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F63B302A-50E0-4904-A27D-A392576DBDDE}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{4C34E866-5B3C-4FDB-9A62-76FB02CE4E02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E59231-F8AE-47D0-8A9B-6CC03D4383B2}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="18">
+        <v>7576</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" s="18">
+        <v>888</v>
+      </c>
+      <c r="T2" s="18">
+        <v>5</v>
+      </c>
+      <c r="U2" s="18">
+        <v>-111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E4C8C5-7EF8-4C95-94E9-D7FC89E2C302}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="22">
+        <v>400</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="T2" s="25">
+        <v>45127</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="25">
+        <v>47757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="25">
+        <v>45128</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="V3" s="24"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="25">
+        <v>45129</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="V4" s="24"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P5" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" s="25">
+        <v>41447</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="V5" s="24"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P6" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25">
+        <v>41448</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="V6" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>